--- a/biology/Zoologie/Bistolida_stolida/Bistolida_stolida.xlsx
+++ b/biology/Zoologie/Bistolida_stolida/Bistolida_stolida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistolida stolida (anciennement Cypraea stolida) est une espèce de mollusques gastéropodes appartenant à la famille des Cypraeidae ("porcelaines").
 Répartition : océan Indien et centre de l'océan Pacifique.
@@ -513,14 +525,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010) :
 sous-espèce Bistolida stolida clavicola
 sous-espèce Bistolida stolida diagues
 sous-espèce Bistolida stolida rubiginosa
 sous-espèce Bistolida stolida stolida
-Selon World Register of Marine Species                               (28 avr. 2010)[2] :
+Selon World Register of Marine Species                               (28 avr. 2010) :
 sous-espèce Bistolida stolida brianoi  Lorenz, 2002
 sous-espèce Bistolida stolida clavicola  Lorenz, 1998
 sous-espèce Bistolida stolida salaryensis  Bozzetti, 2008
@@ -552,7 +566,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coquillage figure sur une émission de Nouvelle-Calédonie de 1981 (valeur faciale : 13 F).
 </t>
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Gastropods.com</t>
         </is>
